--- a/test_data/testcase.xlsx
+++ b/test_data/testcase.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="3" r:id="rId2"/>
+    <sheet name="empty" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>用例ID</t>
   </si>
@@ -54,146 +57,296 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/2/guest/cardlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.weibo.cn/2/guest/cardlist</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dajl </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dkakd </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dasdw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwd'a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fadfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-    "cardlistInfo": {
-        "v_p": "60",
-        "containerid": "100303type=1&amp;q=接口测试&amp;t=0type",
-        "title_top": "",
-        "total": "*",
-        "show_style": 1,
-        "starttime": "*",
-        "can_shared": 0,
-        "cardlist_menus": [],
-        "cardlist_head_cards": [
-            {
-                "head_type": 0,
-                "head_type_name": "channel_list",
-                "show_menu": "1",
-                "menu_scheme": "sinaweibo://cardlist?containerid=100303type%3D42%26q%3D%E6%8E%A5%E5%8F%A3%E6%B5%8B%E8%AF%95&amp;extparam=100303type%3D1%26q%3D%E6%8E%A5%E5%8F%A3%E6%B5%8B%E8%AF%95%26t%3D0type",
-                "channel_list": "*"
-            }
-        ],
-        "toolbar_menus": [],
-        "page_size": "10",
-        "custom_toolbar_menus": {
-            "type": 0,
-            "handler_type": 2,
-            "menus": [
-                {
-                    "skip_format": 1,
-                    "type": "link",
-                    "name": "分享",
-                    "pic": "http://simg.s.weibo.com/20180323153149_toolbar_icon_share.png",
-                    "params": {
-                        "scheme": "wb_search_share"
-                    },
-                    "actionlog": {
-                        "act_code": 554,
-                        "ext": "*",
-                        "luicode": "",
-                        "uicode": "10000003",
-                        "fid": "100303type=1&amp;q=接口测试&amp;t=0type"
-                    }
-                },
-                {
-                    "skip_format": 1,
-                    "type": "link",
-                    "name": "参与讨论",
-                    "pic": "http://simg.s.weibo.com/20180319194319_post.png",
-                    "title_color": "#FF8200",
-                    "params": {
-                        "scheme": "sinaweibo://sendweibo?content=#接口测试#"
-                    },
-                    "actionlog": {
-                        "act_code": 554,
-                        "ext": "*",
-                        "luicode": "",
-                        "uicode": "10000003",
-                        "fid": "100303type=1&amp;q=接口测试&amp;t=0type"
-                    }
-                },
-                {
-                    "type": "toolbar_menu_list",
-                    "name": "更多",
-                    "scheme": {
-                        "index": "more"
-                    },
-                    "params": {
-                        "menu_list": [
-                            {
-                                "type": "link",
-                                "name": "对应话题",
-                                "params": {
-                                    "scheme": "sinaweibo://searchall?containerid=231522&amp;q=%23%E6%8E%A5%E5%8F%A3%E6%B5%8B%E8%AF%95%23"
-                                }
-                            },
-                            {
-                                "type": "link",
-                                "name": "微博热搜",
-                                "params": {
-                                    "scheme": "sinaweibo://pageinfo?containerid=106003type%3D25%26t%3D3%26disable_hot%3D1%26filter_type%3Drealtimehot&amp;title=%E5%BE%AE%E5%8D%9A%E7%83%AD%E6%90%9C"
-                                }
-                            }
-                        ]
-                    }
-                }
-            ]
-        },
-        "shared_text": "快来搜索看看http://s.weibo.com/weibo/%E6%8E%A5%E5%8F%A3%E6%B5%8B%E8%AF%95",
-        "share_containerid": "100103type%3D1%26q%3D%25E6%258E%25A5%25E5%258F%25A3%25E6%25B5%258B%25E8%25AF%2595",
-        "cardlist_title": "接口测试",
-        "desc": "",
-        "portrait": "http://h5.sinaimg.cn/upload/2016/07/29/557/link.png",
-        "shared_text_qrcode": "",
-        "share_content": {
-            "description": "接口测试",
-            "icon": "http://h5.sinaimg.cn/upload/2016/07/29/557/link.png"
-        },
-        "page_type": "03",
-        "background": ""
-    },
-    "cards": [
-        {
-            "card_type": 11,
-            "show_type": "*",
-            "card_group": "*",
-            "openurl": ""
-        },
-        {
-            "card_type": 11,
-            "show_type": "*",
-            "card_group": "*",
-            "openurl": ""
-        },
-        {
-            "card_type": 11,
-            "show_type": "*",
-            "card_group": "*",
-            "title": "实时微博",
-            "openurl": ""
-        }
-    ]
+"cardlistInfo":{
+"v_p":"60",
+"containerid":"100303type=1&amp;q=接口测试&amp;t=0type",
+"title_top":"",
+"total":"*",
+"show_style":1,
+"starttime":"*",
+"can_shared":0,
+"cardlist_menus":[],
+"cardlist_head_cards":[{
+"head_type":0,
+"head_type_name":"channel_list",
+"show_menu":"1",
+"menu_scheme":"sinaweibo://cardlist?containerid=100303type=42&amp;q=æ¥å£æµè¯&amp;extparam=100303type=1&amp;q=æ¥å£æµè¯&amp;t=0type",
+"channel_list":"*"
+}],
+"toolbar_menus":[],
+"page_size":"10",
+"custom_toolbar_menus":{
+"type":0,
+"handler_type":2,
+"menus":[{
+"skip_format":1,
+"type":"link",
+"name":"分享",
+"pic":"http://simg.s.weibo.com/20180323153149_toolbar_icon_share.png",
+"params":{
+"scheme":"wb_search_share"
+},
+"actionlog":{
+"act_code":554,
+"ext":"*",
+"luicode":"",
+"uicode":"10000003",
+"fid":"100303type=1&amp;q=接口测试&amp;t=0type"
+}
+},
+{
+"skip_format":1,
+"type":"link",
+"name":"参与讨论",
+"pic":"http://simg.s.weibo.com/20180319194319_post.png",
+"title_color":"#FF8200",
+"params":{
+"scheme":"sinaweibo://sendweibo?content=#接口测试#"
+},
+"actionlog":{
+"act_code":554,
+"ext":"*",
+"luicode":"",
+"uicode":"10000003",
+"fid":"100303type=1&amp;q=接口测试&amp;t=0type"
+}
+},
+{
+"type":"toolbar_menu_list",
+"name":"更多",
+"scheme":{
+"index":"more"
+},
+"params":{
+"menu_list":[{
+"type":"link",
+"name":"对应话题",
+"params":{
+"scheme":"sinaweibo://searchall?containerid=231522&amp;q=#æ¥å£æµè¯#"
+}
+},
+{
+"type":"link",
+"name":"微博热搜",
+"params":{
+"scheme":"sinaweibo://pageinfo?containerid=106003type=25&amp;t=3&amp;disable_hot=1&amp;filter_type=realtimehot&amp;title=å¾®åç­æ"
+}
+}
+]
+}
+}
+]
+},
+"shared_text":"快来搜索看看http://s.weibo.com/weibo/æ¥å£æµè¯",
+"share_containerid":"100103type=1&amp;q=%E6%8E%A5%E5%8F%A3%E6%B5%8B%E8%AF%95",
+"cardlist_title":"接口测试",
+"desc":"",
+"portrait":"http://h5.sinaimg.cn/upload/2016/07/29/557/link.png",
+"shared_text_qrcode":"",
+"share_content":{
+"description":"接口测试",
+"icon":"http://h5.sinaimg.cn/upload/2016/07/29/557/link.png"
+},
+"page_type":"03",
+"background":""
+},
+"cards":[{
+"card_type":11,
+"show_type":"*",
+"card_group":"*",
+"openurl":""
+},
+{
+"card_type":11,
+"show_type":"*",
+"card_group":"*",
+"openurl":""
+},
+{
+"card_type":11,
+"show_type":"*",
+"card_group":"*",
+"title":"实时微博",
+"openurl":""
+}
+]
+}</t>
+  </si>
+  <si>
+    <t>{"cardlistInfo":{
+"v_p":"60",
+"containerid":"100303type=1&amp;q=接口测试&amp;t=0type",
+"title_top":"",
+"total":"*",
+"show_style":1,
+"starttime":"*",
+"can_shared":0,
+"cardlist_menus":[],
+"cardlist_head_cards":[{
+"head_type":0,
+"head_type_name":"channel_list",
+"show_menu":"1",
+"menu_scheme":"sinaweibo://cardlist?containerid=100303type=42&amp;q=æ¥å£æµè¯&amp;extparam=100303type=1&amp;q=æ¥å£æµè¯&amp;t=0type",
+"channel_list":"*"
+}],
+"toolbar_menus":[],
+"page_size":"10",
+"custom_toolbar_menus":{
+"type":0,
+"handler_type":2,
+"menus":[{
+"skip_format":1,
+"type":"link",
+"name":"分享",
+"pic":"http://simg.s.weibo.com/20180323153149_toolbar_icon_share.png",
+"params":{
+"scheme":"wb_search_share"
+},
+"actionlog":{
+"act_code":554,
+"ext":"*",
+"luicode":"",
+"uicode":"10000003",
+"fid":"100303type=1&amp;q=接口测试&amp;t=0type"
+}
+},
+{
+"skip_format":1,
+"type":"link",
+"name":"参与讨论",
+"pic":"http://simg.s.weibo.com/20180319194319_post.png",
+"title_color":"#FF8200",
+"params":{
+"scheme":"sinaweibo://sendweibo?content=#接口测试#"
+},
+"actionlog":{
+"act_code":554,
+"ext":"*",
+"luicode":"",
+"uicode":"10000003",
+"fid":"100303type=1&amp;q=接口测试&amp;t=0type"
+}
+},
+{
+"type":"toolbar_menu_list",
+"name":"更多",
+"scheme":{
+"index":"more"
+},
+"params":{
+"menu_list":[{
+"type":"link",
+"name":"对应话题",
+"params":{
+"scheme":"sinaweibo://searchall?containerid=231522&amp;q=#æ¥å£æµè¯#"
+}
+},
+{
+"type":"link",
+"name":"微博热搜",
+"params":{
+"scheme":"sinaweibo://pageinfo?containerid=106003type=25&amp;t=3&amp;disable_hot=1&amp;filter_type=realtimehot&amp;title=å¾®åç­æ"
+}
+}
+]
+}
+}
+]
+},
+"shared_text":"快来搜索看看http://s.weibo.com/weibo/æ¥å£æµè¯",
+"share_containerid":"100103type=1&amp;q=%E6%8E%A5%E5%8F%A3%E6%B5%8B%E8%AF%95",
+"cardlist_title":"接口测试",
+"desc":"",
+"portrait":"http://h5.sinaimg.cn/upload/2016/07/29/557/link.png",
+"shared_text_qrcode":"",
+"share_content":{
+"description":"接口测试",
+"icon":"http://h5.sinaimg.cn/upload/2016/07/29/557/link.png"
+},
+"page_type":"03",
+"background":""
+},
+"cards":[{
+"card_type":11,
+"show_type":"*",
+"card_group":"*",
+"openurl":""
+},
+{
+"card_type":11,
+"show_type":"*",
+"card_group":"*",
+"openurl":""
+},
+{
+"card_type":11,
+"show_type":"*",
+"card_group":"*",
+"title":"实时微博",
+"openurl":""
+}
+]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/2/guest/cardlist</t>
+    <t>微博搜索-reg1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微博搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>containerid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.weibo.cn/2/guest/cardlist</t>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>微博搜索-reg2</t>
   </si>
 </sst>
 </file>
@@ -256,13 +409,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -547,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
@@ -564,7 +717,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,22 +748,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
@@ -618,19 +771,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -641,4 +794,1339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="29.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://api.weibo.cn/2/guest/cardlist"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="29.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" ht="13.5">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="4:8" ht="27" customHeight="1">
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <f ca="1">RANDBETWEEN(2,4341)</f>
+        <v>422</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:M17" ca="1" si="0">RANDBETWEEN(2,4341)</f>
+        <v>3321</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3843</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3616</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1919</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1133</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2850</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <f t="shared" ref="A3:M35" ca="1" si="1">RANDBETWEEN(2,4341)</f>
+        <v>473</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3129</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3936</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>712</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3115</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3731</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <f t="shared" ca="1" si="1"/>
+        <v>887</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4321</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1927</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2526</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3102</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4116</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2521</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>777</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1303</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3720</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>608</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1832</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1813</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2330</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1437</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2817</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2106</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2354</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1790</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3220</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1906</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2135</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3965</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1042</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2474</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3551</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3585</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2401</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1354</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2815</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4127</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2615</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2748</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3234</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4266</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1029</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>634</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1922</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3905</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2107</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>748</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3264</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1852</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2101</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4313</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2920</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3636</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" ca="1" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2263</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3230</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1341</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4201</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" ca="1" si="1"/>
+        <v>2184</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1674</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1317</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>622</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3894</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2720</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2365</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" ca="1" si="1"/>
+        <v>3329</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3512</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1854</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3921</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4273</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2206</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3044</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>696</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1702</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3487</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2827</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3755</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3250</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" ca="1" si="1"/>
+        <v>652</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>813</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2339</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3844</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3427</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3366</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1883</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3960</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>471</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2436</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1789</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2423</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3290</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>610</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>501</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3022</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="1"/>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <f t="shared" ca="1" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3189</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>2336</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>864</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>4141</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>4239</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="1"/>
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3720</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>4322</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2853</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1527</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3211</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1181</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2616</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1324</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>818</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2788</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2932</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>3732</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2774</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="1"/>
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <f t="shared" ca="1" si="1"/>
+        <v>4220</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>2824</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>4178</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>3471</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="1"/>
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3411</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3202</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>4018</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3116</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2462</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2905</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2066</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4207</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3140</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2868</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>492</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2456</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2636</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2156</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1416</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1149</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2674</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2829</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3419</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <f t="shared" ca="1" si="1"/>
+        <v>2533</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>1816</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>2291</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>2180</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>1593</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>2695</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="1"/>
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <f t="shared" ca="1" si="1"/>
+        <v>564</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>1738</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>3002</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>3129</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="1"/>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <f t="shared" ca="1" si="1"/>
+        <v>987</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>2108</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>1721</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>3479</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <f t="shared" ca="1" si="1"/>
+        <v>2373</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>3682</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>763</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>2613</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="1"/>
+        <v>2299</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="1"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <f t="shared" ca="1" si="1"/>
+        <v>2508</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1586</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1647</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>2372</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1138</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="1"/>
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <f t="shared" ca="1" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>2709</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>2714</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>3437</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>2417</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>3530</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="1"/>
+        <v>4272</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="1"/>
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <f t="shared" ca="1" si="1"/>
+        <v>3579</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>4255</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>4218</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>2553</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>1123</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>3978</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="1"/>
+        <v>407</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <f t="shared" ca="1" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>4282</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>1654</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>3949</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>435</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="1"/>
+        <v>3753</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <f t="shared" ca="1" si="1"/>
+        <v>3942</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1740</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>3306</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1334</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1628</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="1"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <f t="shared" ca="1" si="1"/>
+        <v>2888</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>626</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>3244</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>3801</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="1"/>
+        <v>2960</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>